--- a/output/fit_clients/fit_round_21.xlsx
+++ b/output/fit_clients/fit_round_21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_mu</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_U</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -485,25 +510,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D2" t="n">
-        <v>9166329559.036127</v>
+        <v>9009717923.24934</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001351815838892293</v>
+        <v>0.004212508431506714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1357370190528948</v>
+        <v>0.1386779298357199</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1376299375974922</v>
+        <v>0.1574382166713806</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3787271005888441</v>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.253132714455287</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8.249067381033791</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.7481187625852483</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.713307870671175</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +556,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="D3" t="n">
-        <v>9439200507.367393</v>
+        <v>8789904063.819021</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004891641142873002</v>
+        <v>0.004729482473230561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1540131972898895</v>
+        <v>0.1790979035231952</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2057749279804422</v>
+        <v>0.2643330863001614</v>
       </c>
       <c r="I3" t="n">
-        <v>3.347655927782716</v>
+        <v>6</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.6332798307965799</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.897606489087992</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.6622746827490835</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9.347887165893678</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +602,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>567</v>
+        <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>6134660249.689801</v>
+        <v>11918979536.76344</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002660625459979935</v>
+        <v>0.004673846907399744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2420988399602242</v>
+        <v>0.1098831486336827</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5342131383550514</v>
+        <v>0.08128739068668168</v>
       </c>
       <c r="I4" t="n">
-        <v>3.420037677572613</v>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1290021809797127</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8.124936847558216</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.7600719586639845</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7.076502325721474</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +648,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>554</v>
+        <v>411</v>
       </c>
       <c r="D5" t="n">
-        <v>8908427968.492271</v>
+        <v>9317830581.323139</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004016583157079982</v>
+        <v>0.001223787715423529</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1628954137736158</v>
+        <v>0.115538620347734</v>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2388933704148455</v>
+        <v>0.09624388017470185</v>
       </c>
       <c r="I5" t="n">
-        <v>3.341624115300225</v>
+        <v>6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9809555876628266</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1145604435825855</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.378887101873998</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.7802661671261019</v>
+      </c>
+      <c r="N5" t="n">
+        <v>12.22643624064804</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +694,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="D6" t="n">
-        <v>4541984717.962802</v>
+        <v>7490895615.677986</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004860331894281408</v>
+        <v>0.001582336081445277</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2693217185787146</v>
+        <v>0.1797337099694911</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6357170073585906</v>
+        <v>0.2660145432875273</v>
       </c>
       <c r="I6" t="n">
-        <v>2.816856429323475</v>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2051108162877704</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8.201045482866274</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7671382940380193</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7.141720397894112</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +740,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>449</v>
+        <v>612</v>
       </c>
       <c r="D7" t="n">
-        <v>6851684675.415033</v>
+        <v>10707643489.37795</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00476053254405719</v>
+        <v>0.001883725710957506</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1716521068490004</v>
+        <v>0.149712369634855</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2715437833004366</v>
+        <v>0.1866199527327444</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3166824450013252</v>
+        <v>9</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.9837496386989356</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.4059346047027688</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.071246160228936</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.8792316692659969</v>
+      </c>
+      <c r="N7" t="n">
+        <v>14.513387225091</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +786,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>584</v>
+        <v>460</v>
       </c>
       <c r="D8" t="n">
-        <v>4167948754.122343</v>
+        <v>9816274262.752611</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002545926378417389</v>
+        <v>0.00141942319606712</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3670207697460326</v>
+        <v>0.1227471205212766</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0.1153075166883654</v>
       </c>
       <c r="I8" t="n">
-        <v>3.522578489774967</v>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1093358048275254</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8.10527047140603</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.7389886397517579</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.674502323629127</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +832,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="D9" t="n">
-        <v>9773935276.831295</v>
+        <v>13163893594.19625</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004667730463380518</v>
+        <v>0.003457409428442477</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1189908800354822</v>
+        <v>0.1012823068235539</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07518988763216748</v>
+        <v>0.05854156034299764</v>
       </c>
       <c r="I9" t="n">
-        <v>2.678124742226173</v>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4145510261416697</v>
+      </c>
+      <c r="L9" t="n">
+        <v>8.410485692720174</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.7646320742456443</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.882155792192711</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +878,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="D10" t="n">
-        <v>8508261682.255529</v>
+        <v>13986653023.12186</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001195970560627643</v>
+        <v>0.002444318691671547</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1702489561435302</v>
+        <v>0.09775902624735376</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2663119623972814</v>
+        <v>0.04922387446891627</v>
       </c>
       <c r="I10" t="n">
-        <v>3.335592302817734</v>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.08828996757149382</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8.084224634149997</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.7711089517321682</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.337954400493366</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +924,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>411</v>
+        <v>579</v>
       </c>
       <c r="D11" t="n">
-        <v>9479609435.002789</v>
+        <v>6913077197.780251</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002341589887010742</v>
+        <v>0.003264219028667802</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1135668402144126</v>
+        <v>0.2193851980254148</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0549656844836485</v>
+        <v>0.3708770718754292</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2907036650967333</v>
+        <v>7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.3925784889273141</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.414757721396869</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.6036011599556532</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8.657265477716196</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +970,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D12" t="n">
-        <v>6206834233.740249</v>
+        <v>12961017385.20301</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001210634708075548</v>
+        <v>0.001077080645217143</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2042562620906392</v>
+        <v>0.09821941458495005</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3931124075814303</v>
+        <v>0.05044141982672574</v>
       </c>
       <c r="I12" t="n">
-        <v>2.919397241525829</v>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1607638034554517</v>
+      </c>
+      <c r="L12" t="n">
+        <v>8.156698470033955</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.7528489184005089</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.900279897976223</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +1016,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="D13" t="n">
-        <v>4384417456.379845</v>
+        <v>4159255504.286171</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003799180704273011</v>
+        <v>0.004896683613022226</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2825851968537235</v>
+        <v>0.3444862496481577</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6851715261192685</v>
+        <v>0.7017199543333218</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3681592597195338</v>
+        <v>4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.9805495875340083</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.2356435394131166</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4.233610872702369</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.925098906239987</v>
+      </c>
+      <c r="N13" t="n">
+        <v>14.26836725209737</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +1062,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="D14" t="n">
-        <v>7415225737.584642</v>
+        <v>3876535417.388616</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002083211896376473</v>
+        <v>0.002813756704495657</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1868665040063028</v>
+        <v>0.4155578826325237</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3282725443423971</v>
+        <v>0.8896763592758237</v>
       </c>
       <c r="I14" t="n">
-        <v>3.190828803237941</v>
+        <v>8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.3490706857661113</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.176060498097239</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.5882037893148484</v>
+      </c>
+      <c r="N14" t="n">
+        <v>8.588015288199728</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +1108,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>561</v>
+        <v>375</v>
       </c>
       <c r="D15" t="n">
-        <v>4880976789.825549</v>
+        <v>6304965048.981538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003835257473186202</v>
+        <v>0.001760728831000593</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3010622367766925</v>
+        <v>0.1557932902671157</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7540654541346672</v>
+        <v>0.2027015866109449</v>
       </c>
       <c r="I15" t="n">
-        <v>3.383846802677665</v>
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1058441099141851</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5.75982373457644</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.6525546128478895</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7.29126852238135</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +1154,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>597</v>
+        <v>509</v>
       </c>
       <c r="D16" t="n">
-        <v>6470563727.012462</v>
+        <v>9156271449.33127</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001409256946904231</v>
+        <v>0.004064863544109287</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2416753618346657</v>
+        <v>0.1456127111759422</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5326341478013723</v>
+        <v>0.1757779749552131</v>
       </c>
       <c r="I16" t="n">
-        <v>3.600992052047355</v>
+        <v>5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.5430529773554426</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.118943668978773</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.6334741789127708</v>
+      </c>
+      <c r="N16" t="n">
+        <v>8.550539909276644</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +1200,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>443</v>
+        <v>548</v>
       </c>
       <c r="D17" t="n">
-        <v>11741829889.6285</v>
+        <v>10713232964.30799</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002632533958853625</v>
+        <v>0.003703471732622985</v>
       </c>
       <c r="F17" t="n">
-        <v>0.09882529221658772</v>
+        <v>0.1339862322402806</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.145030529158275</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3237549464853617</v>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4100367184014016</v>
+      </c>
+      <c r="L17" t="n">
+        <v>8.405971384979905</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.7836948393651464</v>
+      </c>
+      <c r="N17" t="n">
+        <v>7.267925402323023</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +1246,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="D18" t="n">
-        <v>9377687122.60107</v>
+        <v>7015834821.215199</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002530237705619667</v>
+        <v>0.00268396840055083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.130163837206528</v>
+        <v>0.156435326367889</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1168496399664296</v>
+        <v>0.2043995185744781</v>
       </c>
       <c r="I18" t="n">
-        <v>2.810824616840984</v>
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1607979897498079</v>
+      </c>
+      <c r="L18" t="n">
+        <v>8.156732656328311</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.715813676375219</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6.159540871176068</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1292,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>7630836683.774898</v>
+        <v>11664748662.13274</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003725842327384357</v>
+        <v>0.004381170488033023</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1723184277807811</v>
+        <v>0.1122780299803339</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2740282432843211</v>
+        <v>0.0876209061735066</v>
       </c>
       <c r="I19" t="n">
-        <v>3.027969866210674</v>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5012376349196741</v>
+      </c>
+      <c r="L19" t="n">
+        <v>8.497172301498178</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.7600719586639845</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.704266871781511</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1338,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="D20" t="n">
-        <v>6195528978.003239</v>
+        <v>12027314074.7767</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002579420329773804</v>
+        <v>0.00339823203015052</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2473304790342309</v>
+        <v>0.1230495304935718</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5537199515280378</v>
+        <v>0.1161072716514161</v>
       </c>
       <c r="I20" t="n">
-        <v>3.528610302257458</v>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.74589236555726</v>
+      </c>
+      <c r="L20" t="n">
+        <v>8.741827032135763</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.7916757370334053</v>
+      </c>
+      <c r="N20" t="n">
+        <v>7.091687708532344</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1384,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>540</v>
+        <v>377</v>
       </c>
       <c r="D21" t="n">
-        <v>6528973874.896851</v>
+        <v>9909261615.14567</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004981914292164171</v>
+        <v>0.002392255091252635</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2166451615679572</v>
+        <v>0.09965525872186626</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.439305951154356</v>
+        <v>0.0542386605921364</v>
       </c>
       <c r="I21" t="n">
-        <v>3.257178740545346</v>
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1255351042622175</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.147714336731772</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.2005300383405283</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.862886430078794</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1430,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="D22" t="n">
-        <v>5695560988.51365</v>
+        <v>11563984936.14615</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003435409090929079</v>
+        <v>0.004228785649608674</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2520253444559458</v>
+        <v>0.136813699493391</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5712253377670711</v>
+        <v>0.1525080635509937</v>
       </c>
       <c r="I22" t="n">
-        <v>3.305433240405277</v>
+        <v>10</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3456865389672782</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.874223095795988</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.4412627674971243</v>
+      </c>
+      <c r="N22" t="n">
+        <v>5.951032254146497</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1476,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="D23" t="n">
-        <v>8498628431.95598</v>
+        <v>11655493752.92634</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003950282358147591</v>
+        <v>0.00442692559926159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1473259397118781</v>
+        <v>0.1209070889550419</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1808406612298881</v>
+        <v>0.1104413597752935</v>
       </c>
       <c r="I23" t="n">
-        <v>2.88320636663088</v>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4719053501680949</v>
+      </c>
+      <c r="L23" t="n">
+        <v>8.467840016746598</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.7789101763118091</v>
+      </c>
+      <c r="N23" t="n">
+        <v>7.110363509489586</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1522,40 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="D24" t="n">
-        <v>10192940180.11376</v>
+        <v>7690212620.16528</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002757449512240559</v>
+        <v>0.004152234714061027</v>
       </c>
       <c r="F24" t="n">
-        <v>0.134914924025842</v>
+        <v>0.1938090640162257</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1345646546381158</v>
+        <v>0.3032382967574818</v>
       </c>
       <c r="I24" t="n">
-        <v>3.166701553307975</v>
+        <v>5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.9836162934659403</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.3335330986136804</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.90942379023701</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.9230058350738277</v>
+      </c>
+      <c r="N24" t="n">
+        <v>14.55069291123954</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1568,40 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D25" t="n">
-        <v>10391095255.58848</v>
+        <v>3513415474.074278</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003374091722585616</v>
+        <v>0.003735397575031725</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1273005316055191</v>
+        <v>0.3675509712782403</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.106173450988953</v>
+        <v>0.7627170353986114</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3351618372623309</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.332831625603894</v>
+      </c>
+      <c r="L25" t="n">
+        <v>8.328766292182397</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.7564805538799098</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6.800844785415798</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1614,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>418</v>
+        <v>591</v>
       </c>
       <c r="D26" t="n">
-        <v>10630605977.17746</v>
+        <v>11223087909.01359</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001619619687924144</v>
+        <v>0.003346233460880628</v>
       </c>
       <c r="F26" t="n">
-        <v>0.102995541585364</v>
+        <v>0.1379352547668016</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01554929041754052</v>
+        <v>0.1554741343767607</v>
       </c>
       <c r="I26" t="n">
-        <v>2.521297617681397</v>
+        <v>11</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.9816064277810823</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.3851694421956919</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.796034454671728</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.8202436224405996</v>
+      </c>
+      <c r="N26" t="n">
+        <v>13.60883799414026</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1660,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="D27" t="n">
-        <v>7579923389.860446</v>
+        <v>5778042557.838487</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001976772246546785</v>
+        <v>0.00401423750995453</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1931733257302694</v>
+        <v>0.2661077544183398</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.3517883089707332</v>
+        <v>0.4944397840375271</v>
       </c>
       <c r="I27" t="n">
-        <v>3.371783177712682</v>
+        <v>8</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.9798249690277365</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.3257180779861054</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3.152707890317233</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.8789810056625498</v>
+      </c>
+      <c r="N27" t="n">
+        <v>14.42691222293376</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1706,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="D28" t="n">
-        <v>9336754374.014931</v>
+        <v>6123568789.163984</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004708951780596967</v>
+        <v>0.003820774004081493</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1234402827611707</v>
+        <v>0.2472426573665875</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.09178003585791442</v>
+        <v>0.4445490516616615</v>
       </c>
       <c r="I28" t="n">
-        <v>2.653997492296208</v>
+        <v>8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.4054813749558649</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.232471187286993</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.5512332689629585</v>
+      </c>
+      <c r="N28" t="n">
+        <v>7.792194191972177</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1752,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>521</v>
+        <v>618</v>
       </c>
       <c r="D29" t="n">
-        <v>10240728572.9554</v>
+        <v>4550834168.452063</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003648709149239378</v>
+        <v>0.004965611296417732</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1332622166750931</v>
+        <v>0.3557112740389349</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1284023309256756</v>
+        <v>0.731405711382783</v>
       </c>
       <c r="I29" t="n">
-        <v>3.14257430337801</v>
+        <v>11</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.3039302971158022</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.714795309591838</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.3504558869050375</v>
+      </c>
+      <c r="N29" t="n">
+        <v>4.294322428508913</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1798,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>588</v>
+        <v>477</v>
       </c>
       <c r="D30" t="n">
-        <v>10043888989.73563</v>
+        <v>4595475808.968083</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003692672530015469</v>
+        <v>0.004754256667193547</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1533471070393163</v>
+        <v>0.2718867603571532</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2032913281199633</v>
+        <v>0.5097229727696571</v>
       </c>
       <c r="I30" t="n">
-        <v>0.3193568508255892</v>
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.08891684913212877</v>
+      </c>
+      <c r="L30" t="n">
+        <v>8.084851515710632</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.7481187625852483</v>
+      </c>
+      <c r="N30" t="n">
+        <v>6.877523735994334</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1844,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>562</v>
+        <v>375</v>
       </c>
       <c r="D31" t="n">
-        <v>9831974324.948812</v>
+        <v>3142501434.05659</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004953000027454639</v>
+        <v>0.00204219693722102</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1497254906641209</v>
+        <v>0.3125762296731895</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1897876836567645</v>
+        <v>0.6173305519193124</v>
       </c>
       <c r="I31" t="n">
-        <v>3.389878615160156</v>
+        <v>4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.266000698078337</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.263968031367589</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.561193508999729</v>
+      </c>
+      <c r="N31" t="n">
+        <v>6.95990214862699</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1890,40 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="D32" t="n">
-        <v>8046508487.701202</v>
+        <v>8505751053.700788</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002302539363220608</v>
+        <v>0.003322977913475706</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1458380018853683</v>
+        <v>0.1222582019429723</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1752927010621165</v>
+        <v>0.1140145201097179</v>
       </c>
       <c r="I32" t="n">
-        <v>2.702251992156139</v>
+        <v>8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1469596024844155</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2.973949414815543</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.3305225235219749</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-9.58439988525504</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1936,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>419</v>
+        <v>519</v>
       </c>
       <c r="D33" t="n">
-        <v>5365859415.847305</v>
+        <v>3766772402.870828</v>
       </c>
       <c r="E33" t="n">
-        <v>0.003042729667140085</v>
+        <v>0.003449276237456637</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2045384205852686</v>
+        <v>0.3609093580923263</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.394164470417197</v>
+        <v>0.7451525911186027</v>
       </c>
       <c r="I33" t="n">
-        <v>2.527329430163889</v>
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1980929324883558</v>
+      </c>
+      <c r="L33" t="n">
+        <v>8.19402759906686</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.769625553369738</v>
+      </c>
+      <c r="N33" t="n">
+        <v>7.1984834683279</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1982,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>537</v>
+        <v>424</v>
       </c>
       <c r="D34" t="n">
-        <v>7842773997.734504</v>
+        <v>11065938877.40884</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00168172816104123</v>
+        <v>0.004010447019284172</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1793513915365048</v>
+        <v>0.100363952151167</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3002515182646068</v>
+        <v>0.05611287486841524</v>
       </c>
       <c r="I34" t="n">
-        <v>3.239083303097872</v>
+        <v>6</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.3228009004294777</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.58712755872089</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.4927274868621423</v>
+      </c>
+      <c r="N34" t="n">
+        <v>6.267422178521954</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +2028,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>474</v>
+        <v>611</v>
       </c>
       <c r="D35" t="n">
-        <v>9983549386.376295</v>
+        <v>6730873614.608151</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002295289182122432</v>
+        <v>0.00487487922544918</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1243636718714783</v>
+        <v>0.237777052673596</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.09522300633159161</v>
+        <v>0.4195162649647114</v>
       </c>
       <c r="I35" t="n">
-        <v>0.3657447103273935</v>
+        <v>8</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.9842549002731255</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.3187874922655944</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3.145777304596722</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.8975801844648716</v>
+      </c>
+      <c r="N35" t="n">
+        <v>14.80582638470071</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +2074,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>590</v>
+        <v>463</v>
       </c>
       <c r="D36" t="n">
-        <v>8349496420.676311</v>
+        <v>9931763674.133471</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0016731837889433</v>
+        <v>0.004396834918372778</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1850938095108278</v>
+        <v>0.1221109975822912</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.3216628337245872</v>
+        <v>0.1136252227028108</v>
       </c>
       <c r="I36" t="n">
-        <v>3.558769364669915</v>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1447429700792935</v>
+      </c>
+      <c r="L36" t="n">
+        <v>8.140677636657797</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7406189889722649</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6.671702142787501</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +2120,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="D37" t="n">
-        <v>4522724834.515406</v>
+        <v>4543276723.506876</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003464404985076307</v>
+        <v>0.003463822825190348</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2658353214028379</v>
+        <v>0.217932888586134</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6227175443997349</v>
+        <v>0.3670362868869751</v>
       </c>
       <c r="I37" t="n">
-        <v>2.768601929463544</v>
+        <v>6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.2619616085761116</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.526288266867524</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.414820976429194</v>
+      </c>
+      <c r="N37" t="n">
+        <v>4.770131261716354</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +2166,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="D38" t="n">
-        <v>9620750163.250319</v>
+        <v>8695774470.781296</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001880144056847697</v>
+        <v>0.002473299080977689</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1113562343706114</v>
+        <v>0.1448895201035266</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.04672316725641984</v>
+        <v>0.1738654201376299</v>
       </c>
       <c r="I38" t="n">
-        <v>2.467011305338975</v>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.185263249270528</v>
+      </c>
+      <c r="L38" t="n">
+        <v>8.181197915849031</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.7502296478138238</v>
+      </c>
+      <c r="N38" t="n">
+        <v>6.823395040427446</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +2212,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>445</v>
+        <v>573</v>
       </c>
       <c r="D39" t="n">
-        <v>6549207301.814777</v>
+        <v>3893020096.039746</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003428804882655717</v>
+        <v>0.003401184631037176</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1779800968701977</v>
+        <v>0.3855388446432197</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.2951384765424302</v>
+        <v>0.8102878575153092</v>
       </c>
       <c r="I39" t="n">
-        <v>0.3427064084516639</v>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8796055806886142</v>
+      </c>
+      <c r="L39" t="n">
+        <v>8.875540247267118</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.7953673547992735</v>
+      </c>
+      <c r="N39" t="n">
+        <v>7.03180684871835</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +2258,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D40" t="n">
-        <v>10043623127.87191</v>
+        <v>10002904633.50584</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003944419583593229</v>
+        <v>0.002234513778143185</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1387462932706899</v>
+        <v>0.1390492202975762</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1488503886114907</v>
+        <v>0.1584201333302437</v>
       </c>
       <c r="I40" t="n">
-        <v>3.208924240685415</v>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.4009578770091899</v>
+      </c>
+      <c r="L40" t="n">
+        <v>8.396892543587693</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7755196588616106</v>
+      </c>
+      <c r="N40" t="n">
+        <v>7.113500633644518</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +2304,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="D41" t="n">
-        <v>7158229562.199573</v>
+        <v>4643156109.080911</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001532106934649001</v>
+        <v>0.00219550369589986</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1789383392737145</v>
+        <v>0.2527347115693437</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.2987114018294035</v>
+        <v>0.459073366361543</v>
       </c>
       <c r="I41" t="n">
-        <v>2.949556303938285</v>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.2505881178236177</v>
+      </c>
+      <c r="L41" t="n">
+        <v>8.246522784402121</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.7323818024591511</v>
+      </c>
+      <c r="N41" t="n">
+        <v>6.4011132647809</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +2350,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="D42" t="n">
-        <v>4739727505.622388</v>
+        <v>6765145449.225779</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001144279356828981</v>
+        <v>0.004753020793672395</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2569802480322249</v>
+        <v>0.1672656543000861</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.5897003084187857</v>
+        <v>0.2330414593461488</v>
       </c>
       <c r="I42" t="n">
-        <v>0.3544182680085957</v>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.2019701943007429</v>
+      </c>
+      <c r="L42" t="n">
+        <v>8.197904860879246</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.7233503800030853</v>
+      </c>
+      <c r="N42" t="n">
+        <v>6.269102739182459</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +2396,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>487</v>
+        <v>378</v>
       </c>
       <c r="D43" t="n">
-        <v>6416190947.581908</v>
+        <v>6224893005.776584</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004111428154496694</v>
+        <v>0.003894510149731226</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1988162354302682</v>
+        <v>0.1590596688298383</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.3728285955258233</v>
+        <v>0.2113398681031633</v>
       </c>
       <c r="I43" t="n">
-        <v>2.937492678973303</v>
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.1276158596907264</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4.744070891862486</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.6133925170724965</v>
+      </c>
+      <c r="N43" t="n">
+        <v>7.523779449587445</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +2442,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="D44" t="n">
-        <v>7729946208.813016</v>
+        <v>9919491328.161335</v>
       </c>
       <c r="E44" t="n">
-        <v>0.001635809515497397</v>
+        <v>0.00239899485333726</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1948460195341099</v>
+        <v>0.1555342566427724</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.358025154644825</v>
+        <v>0.2020165449600586</v>
       </c>
       <c r="I44" t="n">
-        <v>3.468292177432544</v>
+        <v>12</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.9849580906435205</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.352261067152858</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2.660488583238738</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.796797918432527</v>
+      </c>
+      <c r="N44" t="n">
+        <v>13.2754697854118</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +2488,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>598</v>
+        <v>376</v>
       </c>
       <c r="D45" t="n">
-        <v>7177774659.773166</v>
+        <v>10557358848.85497</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001034802239271949</v>
+        <v>0.001818596851300997</v>
       </c>
       <c r="F45" t="n">
-        <v>0.2182285310207135</v>
+        <v>0.0932894916332999</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4452097399405874</v>
+        <v>0.03740372031531139</v>
       </c>
       <c r="I45" t="n">
-        <v>3.607023864529846</v>
+        <v>4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.2340962035540965</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4.232063536843349</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.562226832053408</v>
+      </c>
+      <c r="N45" t="n">
+        <v>7.01247310422481</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +2534,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>410</v>
+        <v>594</v>
       </c>
       <c r="D46" t="n">
-        <v>6816447797.504648</v>
+        <v>12534536820.13958</v>
       </c>
       <c r="E46" t="n">
-        <v>0.002323942061119299</v>
+        <v>0.001716169518917231</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1575527212858799</v>
+        <v>0.1241304471259013</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2189724808571561</v>
+        <v>0.1189658693186446</v>
       </c>
       <c r="I46" t="n">
-        <v>2.473043117821466</v>
+        <v>6</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.3751312514981025</v>
+      </c>
+      <c r="L46" t="n">
+        <v>3.639457909789515</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.6573059461270917</v>
+      </c>
+      <c r="N46" t="n">
+        <v>9.506661012752319</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +2580,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="D47" t="n">
-        <v>8020921793.491808</v>
+        <v>9134900353.735931</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004545676530028684</v>
+        <v>0.003104837579760703</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1551206060891349</v>
+        <v>0.1201462925155108</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.2099040386181253</v>
+        <v>0.1084293536110509</v>
       </c>
       <c r="I47" t="n">
-        <v>2.865110929183406</v>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.2483044215716604</v>
+      </c>
+      <c r="L47" t="n">
+        <v>8.244239088150165</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.715813676375219</v>
+      </c>
+      <c r="N47" t="n">
+        <v>6.072034439354214</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +2626,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D48" t="n">
-        <v>9427439655.346371</v>
+        <v>8507088501.938599</v>
       </c>
       <c r="E48" t="n">
-        <v>0.004913119409870457</v>
+        <v>0.004633460584861609</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1625407540138427</v>
+        <v>0.1795096371281435</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2375709776473008</v>
+        <v>0.2654219591025794</v>
       </c>
       <c r="I48" t="n">
-        <v>3.528610302257458</v>
+        <v>7</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.9817656128990642</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.2355863984966745</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3.25776563096623</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.8958748898759128</v>
+      </c>
+      <c r="N48" t="n">
+        <v>14.65973216655203</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +2672,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D49" t="n">
-        <v>9883415458.403444</v>
+        <v>13325445919.82517</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003272627013291664</v>
+        <v>0.001218675383278662</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1166126836264939</v>
+        <v>0.08472189949909095</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.06632248826027767</v>
+        <v>0.014745822235021</v>
       </c>
       <c r="I49" t="n">
-        <v>2.653997492296208</v>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3392114087631368</v>
+      </c>
+      <c r="L49" t="n">
+        <v>8.33514607534164</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.7227771183334741</v>
+      </c>
+      <c r="N49" t="n">
+        <v>6.120396291327843</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +2718,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D50" t="n">
-        <v>7940349739.497027</v>
+        <v>9051844148.767063</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004131512628833012</v>
+        <v>0.003098710838858551</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1745083472970264</v>
+        <v>0.1507651001907588</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2821936289814189</v>
+        <v>0.18940400935776</v>
       </c>
       <c r="I50" t="n">
-        <v>3.190828803237941</v>
+        <v>5</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.974016321435918</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.3201376159599018</v>
+      </c>
+      <c r="L50" t="n">
+        <v>3.896028307583232</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.8875790827863013</v>
+      </c>
+      <c r="N50" t="n">
+        <v>13.85555334814279</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2764,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="D51" t="n">
-        <v>10396649820.57414</v>
+        <v>11944112678.57509</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002903440489956149</v>
+        <v>0.003893258485698142</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1201780430776307</v>
+        <v>0.1127221834079867</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.07961637182602617</v>
+        <v>0.0887955166052504</v>
       </c>
       <c r="I51" t="n">
-        <v>2.877174554148389</v>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1070122309302951</v>
+      </c>
+      <c r="L51" t="n">
+        <v>8.102946897508799</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.7671382940380193</v>
+      </c>
+      <c r="N51" t="n">
+        <v>7.239818983251586</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2810,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>535</v>
+        <v>428</v>
       </c>
       <c r="D52" t="n">
-        <v>6751978193.516016</v>
+        <v>9469814901.882679</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0032647394106087</v>
+        <v>0.002978364556538109</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2075500852988168</v>
+        <v>0.1183865716083971</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.4053938346901926</v>
+        <v>0.1037755866788067</v>
       </c>
       <c r="I52" t="n">
-        <v>3.227019678132889</v>
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.5331232883015293</v>
+      </c>
+      <c r="L52" t="n">
+        <v>6.187102912963785</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.688754938017603</v>
+      </c>
+      <c r="N52" t="n">
+        <v>7.587995847388275</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2856,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="D53" t="n">
-        <v>7353462167.582266</v>
+        <v>6343407288.26578</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001614771459233107</v>
+        <v>0.004748837903182749</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1620763693126958</v>
+        <v>0.2180276083735603</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.2358394618684941</v>
+        <v>0.3672867833223881</v>
       </c>
       <c r="I53" t="n">
-        <v>2.744474679533579</v>
+        <v>6</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.9785437769450618</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.1796359889217832</v>
+      </c>
+      <c r="L53" t="n">
+        <v>3.443962647213196</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.8750487964912991</v>
+      </c>
+      <c r="N53" t="n">
+        <v>14.05701328261278</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2902,40 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>553</v>
+        <v>608</v>
       </c>
       <c r="D54" t="n">
-        <v>9858383163.356503</v>
+        <v>14529861441.67915</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004702064893980365</v>
+        <v>0.003825806088110311</v>
       </c>
       <c r="F54" t="n">
-        <v>0.146933086896454</v>
+        <v>0.1096080046181054</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1793758609318256</v>
+        <v>0.08055974341254728</v>
       </c>
       <c r="I54" t="n">
-        <v>3.335592302817734</v>
+        <v>8</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.2719246260592891</v>
+      </c>
+      <c r="L54" t="n">
+        <v>3.098914438390417</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.5816225252838216</v>
+      </c>
+      <c r="N54" t="n">
+        <v>8.533536067286015</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2948,40 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>567</v>
+        <v>505</v>
       </c>
       <c r="D55" t="n">
-        <v>8091608467.847908</v>
+        <v>4140089407.255638</v>
       </c>
       <c r="E55" t="n">
-        <v>0.001483566800546472</v>
+        <v>0.001561774962723762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1835474536245092</v>
+        <v>0.3195080636862009</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.3158970545974994</v>
+        <v>0.6356625156864932</v>
       </c>
       <c r="I55" t="n">
-        <v>3.420037677572613</v>
+        <v>6</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.978670109376879</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.2727066668485714</v>
+      </c>
+      <c r="L55" t="n">
+        <v>3.537033325139984</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.8581864476459292</v>
+      </c>
+      <c r="N55" t="n">
+        <v>13.6266956277786</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2994,40 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>586</v>
+        <v>478</v>
       </c>
       <c r="D56" t="n">
-        <v>5693327680.654679</v>
+        <v>5316180502.047111</v>
       </c>
       <c r="E56" t="n">
-        <v>0.001146718870240128</v>
+        <v>0.004915031371577813</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2696072711949532</v>
+        <v>0.2355202987403953</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.6367817255964561</v>
+        <v>0.4135480419436143</v>
       </c>
       <c r="I56" t="n">
-        <v>3.534642114739949</v>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2706123341327289</v>
+      </c>
+      <c r="L56" t="n">
+        <v>8.266547000711233</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.7486477866743115</v>
+      </c>
+      <c r="N56" t="n">
+        <v>6.706408732774998</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +3040,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="D57" t="n">
-        <v>5885481050.197246</v>
+        <v>8163237430.44584</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001892700453050512</v>
+        <v>0.002277044999587436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1855898643940742</v>
+        <v>0.1206495153903921</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.3235124356933298</v>
+        <v>0.1097601794057576</v>
       </c>
       <c r="I57" t="n">
-        <v>2.515265805198906</v>
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.2437467094955434</v>
+      </c>
+      <c r="L57" t="n">
+        <v>5.897726334157799</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.6532819921576056</v>
+      </c>
+      <c r="N57" t="n">
+        <v>7.167913508994314</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +3086,40 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>435</v>
+        <v>618</v>
       </c>
       <c r="D58" t="n">
-        <v>9779495401.720741</v>
+        <v>3540069420.793204</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003599858423189042</v>
+        <v>0.003210105022742737</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1165126218883964</v>
+        <v>0.4572743716526577</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.06594939569727384</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>2.623838429883751</v>
+        <v>8</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.4620020024359218</v>
+      </c>
+      <c r="L58" t="n">
+        <v>3.28899181476705</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.5909724599576478</v>
+      </c>
+      <c r="N58" t="n">
+        <v>8.530457384385906</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +3132,40 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>520</v>
+        <v>603</v>
       </c>
       <c r="D59" t="n">
-        <v>10617569647.38405</v>
+        <v>12016328966.12899</v>
       </c>
       <c r="E59" t="n">
-        <v>0.002381176626755057</v>
+        <v>0.001921373897318952</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1282857419574911</v>
+        <v>0.1314454834294393</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0.109846929606294</v>
+        <v>0.1383112518278566</v>
       </c>
       <c r="I59" t="n">
-        <v>3.136542490895518</v>
+        <v>8</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.9823910546371034</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.4000128139139728</v>
+      </c>
+      <c r="L59" t="n">
+        <v>3.227002626245101</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.891299856132603</v>
+      </c>
+      <c r="N59" t="n">
+        <v>14.59899449640696</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +3178,40 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>586</v>
+        <v>388</v>
       </c>
       <c r="D60" t="n">
-        <v>8407995655.68025</v>
+        <v>3640948908.977842</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004383659442112248</v>
+        <v>0.004442299867078091</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1825598635940082</v>
+        <v>0.2791369352901252</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.3122147030545186</v>
+        <v>0.5288968225657554</v>
       </c>
       <c r="I60" t="n">
-        <v>3.534642114739949</v>
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.04139375179483476</v>
+      </c>
+      <c r="L60" t="n">
+        <v>8.037328418373338</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.6970527454674446</v>
+      </c>
+      <c r="N60" t="n">
+        <v>5.903726490975552</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +3224,40 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="D61" t="n">
-        <v>10401201571.8973</v>
+        <v>12506667495.12165</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00241419510991461</v>
+        <v>0.002019913043639493</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1017414721448347</v>
+        <v>0.08021532277813562</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.01087333744442718</v>
+        <v>0.002827706335606382</v>
       </c>
       <c r="I61" t="n">
-        <v>2.436852242926518</v>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.07974133220210222</v>
+      </c>
+      <c r="L61" t="n">
+        <v>8.075675998780605</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.6939141793151552</v>
+      </c>
+      <c r="N61" t="n">
+        <v>5.802607587522498</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +3270,40 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D62" t="n">
-        <v>7740542204.682756</v>
+        <v>8890501421.506681</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003758092146377222</v>
+        <v>0.003771226796759389</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1945792956323954</v>
+        <v>0.1714734532646466</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.3570306415972095</v>
+        <v>0.2441694260593033</v>
       </c>
       <c r="I62" t="n">
-        <v>3.468292177432544</v>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.7127287748768524</v>
+      </c>
+      <c r="L62" t="n">
+        <v>8.708663441455355</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.7994731979664144</v>
+      </c>
+      <c r="N62" t="n">
+        <v>7.280800517872931</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +3316,40 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="D63" t="n">
-        <v>9932952920.781427</v>
+        <v>8286101579.079599</v>
       </c>
       <c r="E63" t="n">
-        <v>0.001541526426544644</v>
+        <v>0.002427678262990123</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1479396712860284</v>
+        <v>0.1884066258542548</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.1831290352912399</v>
+        <v>0.2889509810984818</v>
       </c>
       <c r="I63" t="n">
-        <v>3.383846802677665</v>
+        <v>6</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.9826505498915823</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.5525959803304751</v>
+      </c>
+      <c r="L63" t="n">
+        <v>3.816922638621888</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.9226356036999945</v>
+      </c>
+      <c r="N63" t="n">
+        <v>14.635789435378</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +3362,40 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="D64" t="n">
-        <v>8137772763.190849</v>
+        <v>8373152031.499856</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001804699437831559</v>
+        <v>0.004610314179341419</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1680215975290847</v>
+        <v>0.1489080378941429</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.2580069803932467</v>
+        <v>0.184492812887813</v>
       </c>
       <c r="I64" t="n">
-        <v>3.148606115860501</v>
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.3847609455365925</v>
+      </c>
+      <c r="L64" t="n">
+        <v>8.380695612115096</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.7475888641678146</v>
+      </c>
+      <c r="N64" t="n">
+        <v>6.571081671241195</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +3408,40 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>461</v>
+        <v>383</v>
       </c>
       <c r="D65" t="n">
-        <v>9102584258.556841</v>
+        <v>12053021427.54175</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00233644233676065</v>
+        <v>0.004978969050527762</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1326588972647915</v>
+        <v>0.08323443014110785</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.1261527799046842</v>
+        <v>0.01081205314531771</v>
       </c>
       <c r="I65" t="n">
-        <v>2.780665554428527</v>
+        <v>3</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.0515238373986573</v>
+      </c>
+      <c r="L65" t="n">
+        <v>4.667978869570417</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.6175666589002615</v>
+      </c>
+      <c r="N65" t="n">
+        <v>7.683354308434813</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +3454,40 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D66" t="n">
-        <v>7181161406.947102</v>
+        <v>3498005116.971585</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001461693853076115</v>
+        <v>0.004938173837721294</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1714365170526613</v>
+        <v>0.3482031355787448</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2707399300873806</v>
+        <v>0.7115496499201418</v>
       </c>
       <c r="I66" t="n">
-        <v>2.834951866770949</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.5605239361523563</v>
+      </c>
+      <c r="L66" t="n">
+        <v>8.55645860273086</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.7417012534900994</v>
+      </c>
+      <c r="N66" t="n">
+        <v>6.277566467071129</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +3500,40 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="D67" t="n">
-        <v>6078973503.137218</v>
+        <v>4018467114.375792</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004617733709396809</v>
+        <v>0.001302970660678709</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1977801037263151</v>
+        <v>0.2509576714942583</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.3689652503512599</v>
+        <v>0.4543737970688932</v>
       </c>
       <c r="I67" t="n">
-        <v>2.768601929463544</v>
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.1862495607038384</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3.208428793173393</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.2646013892866289</v>
+      </c>
+      <c r="N67" t="n">
+        <v>2.083598992559184</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +3546,40 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="D68" t="n">
-        <v>8052726062.957469</v>
+        <v>5267025290.850386</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004903775497223803</v>
+        <v>0.002442647305339544</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1450748393607898</v>
+        <v>0.2551244764923173</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.172447155225145</v>
+        <v>0.4653933509280807</v>
       </c>
       <c r="I68" t="n">
-        <v>2.690188367191156</v>
+        <v>10</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.3100748008714284</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2.838611357700139</v>
+      </c>
+      <c r="M68" t="n">
+        <v>-0.2902352171476366</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-8.64331570065287</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +3592,40 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="D69" t="n">
-        <v>5021254900.775035</v>
+        <v>4256163071.685412</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001009454970858385</v>
+        <v>0.001473085525823155</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2837832749299499</v>
+        <v>0.2892542600611606</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.6896387083673169</v>
+        <v>0.5556531515221736</v>
       </c>
       <c r="I69" t="n">
-        <v>3.281305990475311</v>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.08114164213517597</v>
+      </c>
+      <c r="L69" t="n">
+        <v>8.07707630871368</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.7443909141912665</v>
+      </c>
+      <c r="N69" t="n">
+        <v>6.810741975111648</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +3638,40 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>507</v>
+        <v>403</v>
       </c>
       <c r="D70" t="n">
-        <v>8064002940.227704</v>
+        <v>9245979043.677158</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002152856045830613</v>
+        <v>0.002059327837050325</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1646862903999016</v>
+        <v>0.1141700803141966</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.2455708753555811</v>
+        <v>0.09262463218612439</v>
       </c>
       <c r="I70" t="n">
-        <v>0.3804738144177024</v>
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.06589521834262357</v>
+      </c>
+      <c r="L70" t="n">
+        <v>8.061829884921128</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.7062758673520413</v>
+      </c>
+      <c r="N70" t="n">
+        <v>6.063687462119699</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +3684,40 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>417</v>
+        <v>573</v>
       </c>
       <c r="D71" t="n">
-        <v>4351785039.357141</v>
+        <v>5349931201.980556</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004135454195375603</v>
+        <v>0.002557261864882081</v>
       </c>
       <c r="F71" t="n">
-        <v>0.2509971471755774</v>
+        <v>0.2805476207702185</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.5673915770719246</v>
+        <v>0.5326275286183552</v>
       </c>
       <c r="I71" t="n">
-        <v>2.515265805198906</v>
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.8781069843706988</v>
+      </c>
+      <c r="L71" t="n">
+        <v>8.874041650949202</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.7953673547992735</v>
+      </c>
+      <c r="N71" t="n">
+        <v>7.033305445036266</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +3730,40 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="D72" t="n">
-        <v>9964211456.227018</v>
+        <v>12580073504.77763</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00148032754405016</v>
+        <v>0.001994795644767385</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1227648705945056</v>
+        <v>0.1107716484701599</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.08926167808064391</v>
+        <v>0.08363712190916524</v>
       </c>
       <c r="I72" t="n">
-        <v>0.3244687439018877</v>
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.3187506104630226</v>
+      </c>
+      <c r="L72" t="n">
+        <v>8.314685277041526</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.7760061376914605</v>
+      </c>
+      <c r="N72" t="n">
+        <v>7.205437476787685</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +3776,40 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="D73" t="n">
-        <v>10304040395.10735</v>
+        <v>9589338680.628942</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004150488471087899</v>
+        <v>0.003990783982156835</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1293928846234992</v>
+        <v>0.1559723501080788</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1139750479332951</v>
+        <v>0.2031751291843146</v>
       </c>
       <c r="I73" t="n">
-        <v>3.070192553588113</v>
+        <v>5</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.9823037440682506</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.4746982769542732</v>
+      </c>
+      <c r="L73" t="n">
+        <v>4.050588968577603</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.9237949052994788</v>
+      </c>
+      <c r="N73" t="n">
+        <v>14.42530913741197</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +3822,40 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="D74" t="n">
-        <v>9158746291.331097</v>
+        <v>10281228059.95828</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001253580176352478</v>
+        <v>0.00196962289377296</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1295574342006963</v>
+        <v>0.0988523271804676</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1145885913782217</v>
+        <v>0.05211522372148746</v>
       </c>
       <c r="I74" t="n">
-        <v>2.732411054568596</v>
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.1692360377066197</v>
+      </c>
+      <c r="L74" t="n">
+        <v>4.785691069878379</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.6216759888404179</v>
+      </c>
+      <c r="N74" t="n">
+        <v>7.647828706929977</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +3868,40 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>568</v>
+        <v>396</v>
       </c>
       <c r="D75" t="n">
-        <v>8862561285.071087</v>
+        <v>4960900513.299405</v>
       </c>
       <c r="E75" t="n">
-        <v>0.002257239628741936</v>
+        <v>0.001746550265105777</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1678762461712067</v>
+        <v>0.2090907562486321</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2574650198828873</v>
+        <v>0.343652338377613</v>
       </c>
       <c r="I75" t="n">
-        <v>3.426069490055105</v>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.1726936799116815</v>
+      </c>
+      <c r="L75" t="n">
+        <v>8.168628346490186</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.7020069156206352</v>
+      </c>
+      <c r="N75" t="n">
+        <v>5.871509965922519</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +3914,40 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>444</v>
+        <v>603</v>
       </c>
       <c r="D76" t="n">
-        <v>8158695675.868194</v>
+        <v>4917946704.891182</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001551751745503338</v>
+        <v>0.002500517279637018</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1425484178114341</v>
+        <v>0.3211690294303319</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.1630270800895442</v>
+        <v>0.6400551142084407</v>
       </c>
       <c r="I76" t="n">
-        <v>0.3635511693932555</v>
+        <v>8</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.2311353438507923</v>
+      </c>
+      <c r="L76" t="n">
+        <v>3.05812515618192</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.5768130239698629</v>
+      </c>
+      <c r="N76" t="n">
+        <v>8.478135323215337</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +3960,40 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>520</v>
+        <v>459</v>
       </c>
       <c r="D77" t="n">
-        <v>4098792814.396716</v>
+        <v>4314581861.618223</v>
       </c>
       <c r="E77" t="n">
-        <v>0.003583660996018748</v>
+        <v>0.001640206356068186</v>
       </c>
       <c r="F77" t="n">
-        <v>0.3323131618694611</v>
+        <v>0.2786596821109025</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.8705883924804027</v>
+        <v>0.5276346763613222</v>
       </c>
       <c r="I77" t="n">
-        <v>0.3966228969736036</v>
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.1374391805008106</v>
+      </c>
+      <c r="L77" t="n">
+        <v>8.133373847079314</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.7384433205419183</v>
+      </c>
+      <c r="N77" t="n">
+        <v>6.635492563759053</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +4006,40 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="D78" t="n">
-        <v>4988473458.115122</v>
+        <v>12434212192.75304</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002291478011280351</v>
+        <v>0.002681387335630043</v>
       </c>
       <c r="F78" t="n">
-        <v>0.250992298648631</v>
+        <v>0.09648223799005161</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.5673734987396909</v>
+        <v>0.04584727369814034</v>
       </c>
       <c r="I78" t="n">
-        <v>0.3153726130126036</v>
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0632872528968952</v>
+      </c>
+      <c r="L78" t="n">
+        <v>8.059221919475398</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.7378970600701859</v>
+      </c>
+      <c r="N78" t="n">
+        <v>6.698719281928319</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +4052,40 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>425</v>
+        <v>533</v>
       </c>
       <c r="D79" t="n">
-        <v>9294730158.527588</v>
+        <v>6692834913.935944</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003928845664380482</v>
+        <v>0.002286660564860322</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1197711747423502</v>
+        <v>0.2086014204672735</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.0780993129291781</v>
+        <v>0.3423582384616292</v>
       </c>
       <c r="I79" t="n">
-        <v>2.563520305058837</v>
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.365173325936356</v>
+      </c>
+      <c r="L79" t="n">
+        <v>8.36110799251486</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.7764919059545017</v>
+      </c>
+      <c r="N79" t="n">
+        <v>7.168730126575174</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +4098,40 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>462</v>
+        <v>562</v>
       </c>
       <c r="D80" t="n">
-        <v>6936410203.059098</v>
+        <v>9208540021.714869</v>
       </c>
       <c r="E80" t="n">
-        <v>0.002232241306376718</v>
+        <v>0.00240263065359294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1744646214069485</v>
+        <v>0.1598621688702676</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.2820305915936124</v>
+        <v>0.2134621638241367</v>
       </c>
       <c r="I80" t="n">
-        <v>2.786697366911018</v>
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.5219558866169458</v>
+      </c>
+      <c r="L80" t="n">
+        <v>8.51789055319545</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.7902809689615774</v>
+      </c>
+      <c r="N80" t="n">
+        <v>7.287728826036098</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +4144,40 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="D81" t="n">
-        <v>4256261630.042665</v>
+        <v>10258354562.78983</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001917182933926802</v>
+        <v>0.001780150818363885</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2609382262031827</v>
+        <v>0.0988174003730591</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.6044581194281948</v>
+        <v>0.05202285610756101</v>
       </c>
       <c r="I81" t="n">
-        <v>2.557488492576346</v>
+        <v>7</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.2065796588510976</v>
+      </c>
+      <c r="L81" t="n">
+        <v>3.228758891320653</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.2759883261356038</v>
+      </c>
+      <c r="N81" t="n">
+        <v>2.291007631391423</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +4190,40 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="D82" t="n">
-        <v>4074986409.995773</v>
+        <v>14127140177.05092</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003206823848763001</v>
+        <v>0.003856824950587691</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2815451892516103</v>
+        <v>0.09196606133423499</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.6812937291791654</v>
+        <v>0.03390376976177705</v>
       </c>
       <c r="I82" t="n">
-        <v>0.344222835318996</v>
+        <v>11</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.2941358521968019</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2.705000864672838</v>
+      </c>
+      <c r="M82" t="n">
+        <v>-0.4670574644838925</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-12.04615015435069</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +4236,40 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>437</v>
+        <v>568</v>
       </c>
       <c r="D83" t="n">
-        <v>5009133904.063316</v>
+        <v>4933821035.547027</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001812576781077812</v>
+        <v>0.001074467946424377</v>
       </c>
       <c r="F83" t="n">
-        <v>0.2285172350995573</v>
+        <v>0.3015540104273445</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.4835724452837978</v>
+        <v>0.5881811343958288</v>
       </c>
       <c r="I83" t="n">
-        <v>2.635902054848734</v>
+        <v>5</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.9799722428002274</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.4287412377934423</v>
+      </c>
+      <c r="L83" t="n">
+        <v>4.004631929416773</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.9210203628794651</v>
+      </c>
+      <c r="N83" t="n">
+        <v>14.41577532817253</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +4282,40 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>526</v>
+        <v>605</v>
       </c>
       <c r="D84" t="n">
-        <v>9698907773.440872</v>
+        <v>9576481580.342112</v>
       </c>
       <c r="E84" t="n">
-        <v>0.001655168646819171</v>
+        <v>0.002189648524973373</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1420571441841022</v>
+        <v>0.1654815431643515</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1611953056246749</v>
+        <v>0.2283231898902558</v>
       </c>
       <c r="I84" t="n">
-        <v>3.172733365790466</v>
+        <v>11</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.9844025020944043</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.3810074377425152</v>
+      </c>
+      <c r="L84" t="n">
+        <v>2.791872450218552</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.8331885023755501</v>
+      </c>
+      <c r="N84" t="n">
+        <v>13.87189759729245</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +4328,40 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D85" t="n">
-        <v>7094414132.158774</v>
+        <v>7224056356.530454</v>
       </c>
       <c r="E85" t="n">
-        <v>0.002764320414065716</v>
+        <v>0.002715974243362818</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1783326073769844</v>
+        <v>0.1740444894042681</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.2964528555544625</v>
+        <v>0.2509688014146833</v>
       </c>
       <c r="I85" t="n">
-        <v>2.913365429043337</v>
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.09019599151185029</v>
+      </c>
+      <c r="L85" t="n">
+        <v>8.086130658090354</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.7497032258264087</v>
+      </c>
+      <c r="N85" t="n">
+        <v>6.907933858437818</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +4374,40 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="D86" t="n">
-        <v>9282323836.918753</v>
+        <v>7919135781.051933</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003747675497186098</v>
+        <v>0.001306615275381153</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1450462711336436</v>
+        <v>0.1948218533759072</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.1723406350578052</v>
+        <v>0.3059167246902073</v>
       </c>
       <c r="I86" t="n">
-        <v>3.10035161600057</v>
+        <v>8</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.9812689995652545</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.4203390012726907</v>
+      </c>
+      <c r="L86" t="n">
+        <v>3.247328813603819</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.8810183770654777</v>
+      </c>
+      <c r="N86" t="n">
+        <v>14.37303872770574</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +4420,40 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>415</v>
+        <v>594</v>
       </c>
       <c r="D87" t="n">
-        <v>5693295876.164865</v>
+        <v>12798706999.82012</v>
       </c>
       <c r="E87" t="n">
-        <v>0.00213187991332115</v>
+        <v>0.001730716117933279</v>
       </c>
       <c r="F87" t="n">
-        <v>0.190934543653519</v>
+        <v>0.1215683474918105</v>
       </c>
       <c r="G87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0.3434407331749981</v>
+        <v>0.1121901274916045</v>
       </c>
       <c r="I87" t="n">
-        <v>2.503202180233923</v>
+        <v>8</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.9798254493949998</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.2985729327176016</v>
+      </c>
+      <c r="L87" t="n">
+        <v>3.125562745048729</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.8839346053668955</v>
+      </c>
+      <c r="N87" t="n">
+        <v>14.55312936228918</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +4466,40 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D88" t="n">
-        <v>7719717397.619446</v>
+        <v>8392447015.432692</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004376081163326431</v>
+        <v>0.003298927118167436</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1523509280744758</v>
+        <v>0.1379538503932168</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1995769516732868</v>
+        <v>0.1555233124657097</v>
       </c>
       <c r="I88" t="n">
-        <v>2.70828380463863</v>
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.2480176285071592</v>
+      </c>
+      <c r="L88" t="n">
+        <v>8.243952295085663</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.7290255701551113</v>
+      </c>
+      <c r="N88" t="n">
+        <v>6.336559108016562</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +4512,40 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="D89" t="n">
-        <v>9661167883.913055</v>
+        <v>6796592797.832527</v>
       </c>
       <c r="E89" t="n">
-        <v>0.002511555927821913</v>
+        <v>0.001280075440552624</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1380029336018522</v>
+        <v>0.2227597658171938</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.1460786801707467</v>
+        <v>0.3798014711574476</v>
       </c>
       <c r="I89" t="n">
-        <v>0.3917062475220348</v>
+        <v>4</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.2441567721519984</v>
+      </c>
+      <c r="L89" t="n">
+        <v>4.24212410544125</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.7156284092131109</v>
+      </c>
+      <c r="N89" t="n">
+        <v>10.07044407882097</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +4558,40 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D90" t="n">
-        <v>4612073834.546307</v>
+        <v>10645881254.85441</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00104923938025695</v>
+        <v>0.003534428900257333</v>
       </c>
       <c r="F90" t="n">
-        <v>0.2589815087202519</v>
+        <v>0.1060463725804952</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.5971622563474466</v>
+        <v>0.07114063306701028</v>
       </c>
       <c r="I90" t="n">
-        <v>2.75050649201607</v>
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.5156608453688063</v>
+      </c>
+      <c r="L90" t="n">
+        <v>8.511595511947309</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.7227771183334741</v>
+      </c>
+      <c r="N90" t="n">
+        <v>5.943946854722174</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +4604,40 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="D91" t="n">
-        <v>9536728012.299423</v>
+        <v>8770517778.676361</v>
       </c>
       <c r="E91" t="n">
-        <v>0.001304259300510288</v>
+        <v>0.001962726968511287</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1321130883018877</v>
+        <v>0.1355909753573835</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.1241176636979099</v>
+        <v>0.1492744410325557</v>
       </c>
       <c r="I91" t="n">
-        <v>2.901301804078354</v>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0377877268563677</v>
+      </c>
+      <c r="L91" t="n">
+        <v>8.033722393434871</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.7357025260573256</v>
+      </c>
+      <c r="N91" t="n">
+        <v>6.68032812771164</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +4650,40 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>549</v>
+        <v>379</v>
       </c>
       <c r="D92" t="n">
-        <v>5257036714.273483</v>
+        <v>12543245626.2568</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004153207347415489</v>
+        <v>0.002117266920926892</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2735467123703998</v>
+        <v>0.07914608703204193</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.6514704191260257</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>3.311465052887768</v>
+        <v>6</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.128864271289646</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3.393190929581059</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.4169048901636711</v>
+      </c>
+      <c r="N92" t="n">
+        <v>4.944906873692364</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +4696,40 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="D93" t="n">
-        <v>8900450620.701273</v>
+        <v>8525157460.400708</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003862009272679614</v>
+        <v>0.001482920202852919</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1415576181131298</v>
+        <v>0.1216726429767603</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.1593327609032876</v>
+        <v>0.1124659478657784</v>
       </c>
       <c r="I93" t="n">
-        <v>0.3802244612451902</v>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.4213698921071654</v>
+      </c>
+      <c r="L93" t="n">
+        <v>8.417304558685668</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.7020069156206352</v>
+      </c>
+      <c r="N93" t="n">
+        <v>5.622833753727036</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +4742,40 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="D94" t="n">
-        <v>8303843743.283098</v>
+        <v>11738571937.2492</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004689348671871648</v>
+        <v>0.001073756052684995</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1432111557929947</v>
+        <v>0.1142496452864332</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.1654981806005059</v>
+        <v>0.09283505011959489</v>
       </c>
       <c r="I94" t="n">
-        <v>2.738442867051087</v>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.4811734120426803</v>
+      </c>
+      <c r="L94" t="n">
+        <v>8.477108078621184</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.7661381010160244</v>
+      </c>
+      <c r="N94" t="n">
+        <v>6.845653941699306</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +4788,40 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>583</v>
+        <v>504</v>
       </c>
       <c r="D95" t="n">
-        <v>6465292972.074982</v>
+        <v>11289388038.90455</v>
       </c>
       <c r="E95" t="n">
-        <v>0.001191019939142208</v>
+        <v>0.002183530205805787</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2362003356376731</v>
+        <v>0.1169392490939749</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.5122198356458234</v>
+        <v>0.09994799013739923</v>
       </c>
       <c r="I95" t="n">
-        <v>3.516546677292475</v>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.4677559338858057</v>
+      </c>
+      <c r="L95" t="n">
+        <v>8.463690600464309</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.762106539106739</v>
+      </c>
+      <c r="N95" t="n">
+        <v>6.77844018167047</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +4834,40 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="D96" t="n">
-        <v>8922532444.584629</v>
+        <v>11315676414.43863</v>
       </c>
       <c r="E96" t="n">
-        <v>0.002045385215249732</v>
+        <v>0.003703972865183998</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1746742933891965</v>
+        <v>0.1337973413651304</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2828123795050995</v>
+        <v>0.1445309873814948</v>
       </c>
       <c r="I96" t="n">
-        <v>3.588928427082372</v>
+        <v>6</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.2852237861399916</v>
+      </c>
+      <c r="L96" t="n">
+        <v>3.549550444431404</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.6456073450603835</v>
+      </c>
+      <c r="N96" t="n">
+        <v>9.362596456776267</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +4880,40 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="D97" t="n">
-        <v>6821437915.171716</v>
+        <v>3614912985.900282</v>
       </c>
       <c r="E97" t="n">
-        <v>0.003263687175329887</v>
+        <v>0.001835714537144573</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2300122979218676</v>
+        <v>0.4202718588042685</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.4891469718794082</v>
+        <v>0.9021429648260388</v>
       </c>
       <c r="I97" t="n">
-        <v>3.613055677012337</v>
+        <v>13</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.9865135302300519</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.3382178951280444</v>
+      </c>
+      <c r="L97" t="n">
+        <v>2.555891159405648</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.7636713331189884</v>
+      </c>
+      <c r="N97" t="n">
+        <v>12.71753550297412</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +4926,40 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="D98" t="n">
-        <v>7639096396.914216</v>
+        <v>10386925402.03074</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001715347788404721</v>
+        <v>0.001755445146982878</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1399002008184766</v>
+        <v>0.1066727570589248</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.1531528755826218</v>
+        <v>0.07279717266985467</v>
       </c>
       <c r="I98" t="n">
-        <v>0.200968929282997</v>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.1270455696404666</v>
+      </c>
+      <c r="L98" t="n">
+        <v>8.12298023621897</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.7181523539310184</v>
+      </c>
+      <c r="N98" t="n">
+        <v>6.240066842401399</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +4972,40 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>533</v>
+        <v>417</v>
       </c>
       <c r="D99" t="n">
-        <v>11439926668.94033</v>
+        <v>12964298285.62408</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004233064340437886</v>
+        <v>0.004987218711569141</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1220405436505585</v>
+        <v>0.08425335532515629</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.08656093550802682</v>
+        <v>0.01350670791061979</v>
       </c>
       <c r="I99" t="n">
-        <v>0.2332301700305121</v>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.1941517126041738</v>
+      </c>
+      <c r="L99" t="n">
+        <v>8.190086379182677</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.7146376213668009</v>
+      </c>
+      <c r="N99" t="n">
+        <v>6.10266604815334</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +5018,40 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="D100" t="n">
-        <v>6025869456.651406</v>
+        <v>5395665754.263126</v>
       </c>
       <c r="E100" t="n">
-        <v>0.001900736546156981</v>
+        <v>0.002270177291117059</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1934374049065018</v>
+        <v>0.2437018599532538</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.3527729608323716</v>
+        <v>0.4351850406702958</v>
       </c>
       <c r="I100" t="n">
-        <v>2.684156554708665</v>
+        <v>7</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.2413480853146142</v>
+      </c>
+      <c r="L100" t="n">
+        <v>3.263527317784169</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.5250976797465144</v>
+      </c>
+      <c r="N100" t="n">
+        <v>7.238426277146119</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +5064,40 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="D101" t="n">
-        <v>9675065451.307203</v>
+        <v>11459523871.10716</v>
       </c>
       <c r="E101" t="n">
-        <v>0.004566768039588344</v>
+        <v>0.003169170035935485</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1757077632761972</v>
+        <v>0.1380608459648983</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.2866657997660256</v>
+        <v>0.1558062735030964</v>
       </c>
       <c r="I101" t="n">
-        <v>3.914646301136906</v>
+        <v>8</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.368669778590096</v>
+      </c>
+      <c r="L101" t="n">
+        <v>3.195659590921224</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.5777824139453467</v>
+      </c>
+      <c r="N101" t="n">
+        <v>8.359988687985709</v>
       </c>
     </row>
   </sheetData>
